--- a/documentation-generator/vocab_csv/purpose_processing.xlsx
+++ b/documentation-generator/vocab_csv/purpose_processing.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="747">
   <si>
     <t>Term</t>
   </si>
@@ -819,6 +819,9 @@
     <t>MaintainCreditCheckingDatabase</t>
   </si>
   <si>
+    <t>Maintain Credit Checking Database</t>
+  </si>
+  <si>
     <t>Purposes associated with maintaining a Credit Checking Database</t>
   </si>
   <si>
@@ -826,6 +829,9 @@
   </si>
   <si>
     <t>MaintainCreditRatingDatabase</t>
+  </si>
+  <si>
+    <t>Maintain Credit Rating Database</t>
   </si>
   <si>
     <t>Purposes associated with maintaining a Credit Rating Database</t>
@@ -5797,13 +5803,13 @@
         <v>200</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>34</v>
@@ -5844,16 +5850,16 @@
     </row>
     <row r="50">
       <c r="A50" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>202</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>34</v>
@@ -5911,13 +5917,13 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>33</v>
@@ -5929,7 +5935,7 @@
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
       <c r="I52" s="38" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="J52" s="14"/>
       <c r="K52" s="56">
@@ -5963,16 +5969,16 @@
     </row>
     <row r="53">
       <c r="A53" s="11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>34</v>
@@ -6013,16 +6019,16 @@
     </row>
     <row r="54">
       <c r="A54" s="21" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E54" s="21" t="s">
         <v>34</v>
@@ -6044,10 +6050,10 @@
         <v>22</v>
       </c>
       <c r="N54" s="21" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O54" s="25" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P54" s="26"/>
       <c r="Q54" s="26"/>
@@ -6067,23 +6073,23 @@
     </row>
     <row r="55">
       <c r="A55" s="21" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E55" s="21" t="s">
         <v>34</v>
       </c>
       <c r="F55" s="23"/>
       <c r="G55" s="23" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H55" s="23"/>
       <c r="I55" s="23"/>
@@ -6121,16 +6127,16 @@
     </row>
     <row r="56">
       <c r="A56" s="21" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E56" s="21" t="s">
         <v>34</v>
@@ -6152,10 +6158,10 @@
         <v>22</v>
       </c>
       <c r="N56" s="21" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O56" s="25" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P56" s="26"/>
       <c r="Q56" s="26"/>
@@ -6175,16 +6181,16 @@
     </row>
     <row r="57">
       <c r="A57" s="21" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B57" s="64" t="s">
+        <v>229</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D57" s="21" t="s">
         <v>227</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>225</v>
       </c>
       <c r="E57" s="21" t="s">
         <v>34</v>
@@ -6225,16 +6231,16 @@
     </row>
     <row r="58">
       <c r="A58" s="11" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>34</v>
@@ -6243,7 +6249,7 @@
       <c r="G58" s="14"/>
       <c r="H58" s="14"/>
       <c r="I58" s="11" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="J58" s="30"/>
       <c r="K58" s="15">
@@ -6294,13 +6300,13 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>33</v>
@@ -6344,23 +6350,23 @@
     </row>
     <row r="61">
       <c r="A61" s="11" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>34</v>
       </c>
       <c r="F61" s="14"/>
       <c r="G61" s="14" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
@@ -6396,23 +6402,23 @@
     </row>
     <row r="62">
       <c r="A62" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D62" s="11" t="s">
         <v>241</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>239</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>34</v>
       </c>
       <c r="F62" s="14"/>
       <c r="G62" s="14" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
@@ -6448,16 +6454,16 @@
     </row>
     <row r="63">
       <c r="A63" s="11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>34</v>
@@ -6498,21 +6504,21 @@
     </row>
     <row r="65">
       <c r="A65" s="65" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>34</v>
@@ -6521,7 +6527,7 @@
       <c r="G66" s="14"/>
       <c r="H66" s="14"/>
       <c r="I66" s="11" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="J66" s="30"/>
       <c r="K66" s="15">
@@ -6555,16 +6561,16 @@
     </row>
     <row r="67">
       <c r="A67" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="D67" s="11" t="s">
         <v>254</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>252</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>34</v>
@@ -6573,7 +6579,7 @@
       <c r="G67" s="14"/>
       <c r="H67" s="14"/>
       <c r="I67" s="11" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="J67" s="30"/>
       <c r="K67" s="15">
@@ -6607,16 +6613,16 @@
     </row>
     <row r="68">
       <c r="A68" s="11" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>34</v>
@@ -6625,7 +6631,7 @@
       <c r="G68" s="14"/>
       <c r="H68" s="14"/>
       <c r="I68" s="11" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J68" s="30"/>
       <c r="K68" s="15">
@@ -6659,16 +6665,16 @@
     </row>
     <row r="69">
       <c r="A69" s="11" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>34</v>
@@ -6677,7 +6683,7 @@
       <c r="G69" s="14"/>
       <c r="H69" s="14"/>
       <c r="I69" s="11" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="J69" s="30"/>
       <c r="K69" s="20">
@@ -6728,13 +6734,13 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D71" s="11" t="s">
         <v>33</v>
@@ -6778,16 +6784,16 @@
     </row>
     <row r="72">
       <c r="A72" s="66" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B72" s="67" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C72" s="66" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E72" s="66" t="s">
         <v>34</v>
@@ -6796,7 +6802,7 @@
       <c r="G72" s="26"/>
       <c r="H72" s="26"/>
       <c r="I72" s="66" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="J72" s="26"/>
       <c r="K72" s="68">
@@ -6828,16 +6834,16 @@
     </row>
     <row r="73">
       <c r="A73" s="11" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E73" s="11" t="s">
         <v>34</v>
@@ -6878,16 +6884,16 @@
     </row>
     <row r="74">
       <c r="A74" s="21" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C74" s="69" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E74" s="21" t="s">
         <v>34</v>
@@ -6896,7 +6902,7 @@
       <c r="G74" s="23"/>
       <c r="H74" s="23"/>
       <c r="I74" s="69" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="J74" s="21"/>
       <c r="K74" s="61">
@@ -6930,16 +6936,16 @@
     </row>
     <row r="75">
       <c r="A75" s="72" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D75" s="72" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>34</v>
@@ -6948,7 +6954,7 @@
       <c r="G75" s="14"/>
       <c r="H75" s="14"/>
       <c r="I75" s="11" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J75" s="73"/>
       <c r="K75" s="20">
@@ -6982,16 +6988,16 @@
     </row>
     <row r="76">
       <c r="A76" s="11" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>34</v>
@@ -7006,7 +7012,7 @@
       </c>
       <c r="L76" s="74"/>
       <c r="M76" s="11" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N76" s="11" t="s">
         <v>35</v>
@@ -7030,16 +7036,16 @@
     </row>
     <row r="77">
       <c r="A77" s="11" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>34</v>
@@ -7048,7 +7054,7 @@
       <c r="G77" s="14"/>
       <c r="H77" s="14"/>
       <c r="I77" s="18" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J77" s="11"/>
       <c r="K77" s="16">
@@ -7058,7 +7064,7 @@
         <v>44839.0</v>
       </c>
       <c r="M77" s="11" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N77" s="11" t="s">
         <v>35</v>
@@ -7084,16 +7090,16 @@
     </row>
     <row r="78">
       <c r="A78" s="72" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D78" s="72" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E78" s="11" t="s">
         <v>34</v>
@@ -7134,23 +7140,23 @@
     </row>
     <row r="79">
       <c r="A79" s="11" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E79" s="11" t="s">
         <v>34</v>
       </c>
       <c r="F79" s="14"/>
       <c r="G79" s="14" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
@@ -7186,16 +7192,16 @@
     </row>
     <row r="80">
       <c r="A80" s="5" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B80" s="58" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>34</v>
@@ -7213,7 +7219,7 @@
         <v>22</v>
       </c>
       <c r="N80" s="5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O80" s="8"/>
       <c r="P80" s="8"/>
@@ -7237,16 +7243,16 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E82" s="11" t="s">
         <v>34</v>
@@ -7255,7 +7261,7 @@
       <c r="G82" s="14"/>
       <c r="H82" s="14"/>
       <c r="I82" s="11" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="J82" s="30"/>
       <c r="K82" s="15">
@@ -7289,27 +7295,27 @@
     </row>
     <row r="83">
       <c r="A83" s="21" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B83" s="64" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D83" s="21" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E83" s="21" t="s">
         <v>34</v>
       </c>
       <c r="F83" s="23"/>
       <c r="G83" s="23" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H83" s="23"/>
       <c r="I83" s="21" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="J83" s="62"/>
       <c r="K83" s="63">
@@ -7343,16 +7349,16 @@
     </row>
     <row r="84">
       <c r="A84" s="11" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E84" s="11" t="s">
         <v>34</v>
@@ -7393,16 +7399,16 @@
     </row>
     <row r="85">
       <c r="A85" s="11" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E85" s="11" t="s">
         <v>34</v>
@@ -7443,16 +7449,16 @@
     </row>
     <row r="86">
       <c r="A86" s="11" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E86" s="11" t="s">
         <v>34</v>
@@ -7493,16 +7499,16 @@
     </row>
     <row r="87">
       <c r="A87" s="11" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B87" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="D87" s="11" t="s">
         <v>327</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>325</v>
       </c>
       <c r="E87" s="11" t="s">
         <v>34</v>
@@ -7543,16 +7549,16 @@
     </row>
     <row r="88">
       <c r="A88" s="11" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E88" s="11" t="s">
         <v>34</v>
@@ -7593,16 +7599,16 @@
     </row>
     <row r="89">
       <c r="A89" s="11" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E89" s="11" t="s">
         <v>34</v>
@@ -7643,13 +7649,13 @@
     </row>
     <row r="91">
       <c r="A91" s="65" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D91" s="11" t="s">
         <v>33</v>
@@ -7670,7 +7676,7 @@
         <v>22</v>
       </c>
       <c r="N91" s="11" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="O91" s="14"/>
       <c r="P91" s="29"/>
@@ -7691,16 +7697,16 @@
     </row>
     <row r="92">
       <c r="A92" s="21" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C92" s="69" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D92" s="21" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E92" s="21" t="s">
         <v>34</v>
@@ -7709,7 +7715,7 @@
       <c r="G92" s="23"/>
       <c r="H92" s="23"/>
       <c r="I92" s="69" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J92" s="21"/>
       <c r="K92" s="61">
@@ -7745,16 +7751,16 @@
     </row>
     <row r="93">
       <c r="A93" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="D93" s="5" t="s">
         <v>345</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>343</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>34</v>
@@ -7772,7 +7778,7 @@
         <v>22</v>
       </c>
       <c r="N93" s="11" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="O93" s="8"/>
       <c r="P93" s="8"/>
@@ -7793,13 +7799,13 @@
     </row>
     <row r="94">
       <c r="A94" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B94" s="58" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>33</v>
@@ -7820,7 +7826,7 @@
         <v>22</v>
       </c>
       <c r="N94" s="11" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="O94" s="8"/>
       <c r="P94" s="8"/>
@@ -10585,13 +10591,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="78" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E1" s="78" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F1" s="78" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G1" s="78" t="s">
         <v>6</v>
@@ -10606,7 +10612,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="82" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L1" s="83" t="s">
         <v>11</v>
@@ -10623,13 +10629,13 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>17</v>
@@ -10639,7 +10645,7 @@
         <v>dpv:Purpose</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -10657,7 +10663,7 @@
         <v>22</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="O2" s="10" t="s">
         <v>24</v>
@@ -10678,22 +10684,22 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B3" s="76" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -13765,13 +13771,13 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>17</v>
@@ -13781,7 +13787,7 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>20</v>
@@ -13835,7 +13841,7 @@
     </row>
     <row r="4">
       <c r="A4" s="65" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
@@ -13851,30 +13857,30 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I5" s="87"/>
       <c r="J5" s="89" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K5" s="9">
         <v>43592.0</v>
@@ -13885,7 +13891,7 @@
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
@@ -13905,16 +13911,16 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>34</v>
@@ -13924,7 +13930,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="87"/>
       <c r="J6" s="89" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K6" s="9">
         <v>43592.0</v>
@@ -13935,7 +13941,7 @@
       </c>
       <c r="N6" s="8"/>
       <c r="O6" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
@@ -13955,16 +13961,16 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>34</v>
@@ -13974,7 +13980,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="87"/>
       <c r="J7" s="89" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K7" s="9">
         <v>43592.0</v>
@@ -13985,7 +13991,7 @@
       </c>
       <c r="N7" s="8"/>
       <c r="O7" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
@@ -14005,16 +14011,16 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>34</v>
@@ -14024,7 +14030,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="87"/>
       <c r="J8" s="89" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K8" s="9">
         <v>43592.0</v>
@@ -14035,7 +14041,7 @@
       </c>
       <c r="N8" s="8"/>
       <c r="O8" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
@@ -14055,16 +14061,16 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>34</v>
@@ -14074,7 +14080,7 @@
       <c r="H9" s="8"/>
       <c r="I9" s="87"/>
       <c r="J9" s="89" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K9" s="9">
         <v>43592.0</v>
@@ -14085,7 +14091,7 @@
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
@@ -14105,16 +14111,16 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B10" s="76" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>34</v>
@@ -14124,7 +14130,7 @@
       <c r="H10" s="8"/>
       <c r="I10" s="87"/>
       <c r="J10" s="89" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K10" s="9">
         <v>43592.0</v>
@@ -14135,7 +14141,7 @@
       </c>
       <c r="N10" s="8"/>
       <c r="O10" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
@@ -14155,30 +14161,30 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B11" s="76" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I11" s="87"/>
       <c r="J11" s="89" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K11" s="9">
         <v>43592.0</v>
@@ -14189,7 +14195,7 @@
       </c>
       <c r="N11" s="8"/>
       <c r="O11" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
@@ -14209,16 +14215,16 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>34</v>
@@ -14228,7 +14234,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="87"/>
       <c r="J12" s="89" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K12" s="9">
         <v>43592.0</v>
@@ -14239,7 +14245,7 @@
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
@@ -14259,16 +14265,16 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>34</v>
@@ -14278,7 +14284,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="87"/>
       <c r="J13" s="89" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K13" s="9">
         <v>43592.0</v>
@@ -14289,7 +14295,7 @@
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
@@ -14309,21 +14315,21 @@
     </row>
     <row r="15">
       <c r="A15" s="65" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>34</v>
@@ -14364,30 +14370,30 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>396</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>394</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I17" s="87"/>
       <c r="J17" s="89" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K17" s="9">
         <v>43592.0</v>
@@ -14398,7 +14404,7 @@
       </c>
       <c r="N17" s="8"/>
       <c r="O17" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
@@ -14418,16 +14424,16 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>34</v>
@@ -14468,30 +14474,30 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I19" s="87"/>
       <c r="J19" s="5" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K19" s="9">
         <v>43592.0</v>
@@ -14502,7 +14508,7 @@
       </c>
       <c r="N19" s="8"/>
       <c r="O19" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
@@ -14522,16 +14528,16 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>34</v>
@@ -14572,16 +14578,16 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>408</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>406</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>34</v>
@@ -14622,16 +14628,16 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>34</v>
@@ -14641,7 +14647,7 @@
       <c r="H22" s="5"/>
       <c r="I22" s="87"/>
       <c r="J22" s="89" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K22" s="9">
         <v>44671.0</v>
@@ -14674,16 +14680,16 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>34</v>
@@ -14693,7 +14699,7 @@
       <c r="H23" s="8"/>
       <c r="I23" s="87"/>
       <c r="J23" s="89" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K23" s="9">
         <v>43592.0</v>
@@ -14704,7 +14710,7 @@
       </c>
       <c r="N23" s="8"/>
       <c r="O23" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
@@ -14724,16 +14730,16 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>34</v>
@@ -14743,7 +14749,7 @@
       <c r="H24" s="8"/>
       <c r="I24" s="87"/>
       <c r="J24" s="89" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K24" s="9">
         <v>43592.0</v>
@@ -14754,7 +14760,7 @@
       </c>
       <c r="N24" s="8"/>
       <c r="O24" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
@@ -14774,21 +14780,21 @@
     </row>
     <row r="26">
       <c r="A26" s="65" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>34</v>
@@ -14798,7 +14804,7 @@
       <c r="H27" s="8"/>
       <c r="I27" s="87"/>
       <c r="J27" s="89" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K27" s="9">
         <v>43592.0</v>
@@ -14809,7 +14815,7 @@
       </c>
       <c r="N27" s="8"/>
       <c r="O27" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
@@ -14829,30 +14835,30 @@
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C28" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>421</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>419</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I28" s="87"/>
       <c r="J28" s="5" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K28" s="9">
         <v>43592.0</v>
@@ -14863,7 +14869,7 @@
       </c>
       <c r="N28" s="8"/>
       <c r="O28" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
@@ -14883,32 +14889,32 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I29" s="90" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="J29" s="89" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K29" s="9">
         <v>43592.0</v>
@@ -14919,7 +14925,7 @@
       </c>
       <c r="N29" s="8"/>
       <c r="O29" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
@@ -14939,16 +14945,16 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B30" s="58" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>34</v>
@@ -14957,7 +14963,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="90" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="J30" s="88"/>
       <c r="K30" s="9">
@@ -14967,7 +14973,7 @@
         <v>44848.0</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N30" s="5" t="s">
         <v>81</v>
@@ -14991,16 +14997,16 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B31" s="58" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>34</v>
@@ -15041,16 +15047,16 @@
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>34</v>
@@ -15091,16 +15097,16 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>34</v>
@@ -15110,7 +15116,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="87"/>
       <c r="J33" s="89" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K33" s="9">
         <v>43592.0</v>
@@ -15121,7 +15127,7 @@
       </c>
       <c r="N33" s="8"/>
       <c r="O33" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
@@ -15154,7 +15160,7 @@
     </row>
     <row r="35">
       <c r="A35" s="65" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
@@ -15169,16 +15175,16 @@
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>34</v>
@@ -15188,7 +15194,7 @@
       <c r="H36" s="8"/>
       <c r="I36" s="87"/>
       <c r="J36" s="89" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K36" s="9">
         <v>43592.0</v>
@@ -15199,7 +15205,7 @@
       </c>
       <c r="N36" s="8"/>
       <c r="O36" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
@@ -15219,16 +15225,16 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C37" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>442</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>440</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>34</v>
@@ -15238,7 +15244,7 @@
       <c r="H37" s="8"/>
       <c r="I37" s="87"/>
       <c r="J37" s="89" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K37" s="9">
         <v>43592.0</v>
@@ -15249,7 +15255,7 @@
       </c>
       <c r="N37" s="8"/>
       <c r="O37" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
@@ -15283,7 +15289,7 @@
     </row>
     <row r="39">
       <c r="A39" s="65" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="5"/>
@@ -15299,30 +15305,30 @@
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I40" s="87"/>
       <c r="J40" s="89" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K40" s="9">
         <v>43592.0</v>
@@ -15333,7 +15339,7 @@
       </c>
       <c r="N40" s="8"/>
       <c r="O40" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
@@ -15366,7 +15372,7 @@
     </row>
     <row r="42">
       <c r="A42" s="65" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="7"/>
@@ -15381,16 +15387,16 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>34</v>
@@ -15400,7 +15406,7 @@
       <c r="H43" s="8"/>
       <c r="I43" s="87"/>
       <c r="J43" s="89" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K43" s="9">
         <v>43592.0</v>
@@ -15411,7 +15417,7 @@
       </c>
       <c r="N43" s="8"/>
       <c r="O43" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
@@ -15431,16 +15437,16 @@
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C44" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>452</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>450</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>34</v>
@@ -15450,7 +15456,7 @@
       <c r="H44" s="8"/>
       <c r="I44" s="87"/>
       <c r="J44" s="89" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K44" s="9">
         <v>43592.0</v>
@@ -15461,7 +15467,7 @@
       </c>
       <c r="N44" s="8"/>
       <c r="O44" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P44" s="8"/>
       <c r="Q44" s="8"/>
@@ -15481,16 +15487,16 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>34</v>
@@ -15500,7 +15506,7 @@
       <c r="H45" s="8"/>
       <c r="I45" s="87"/>
       <c r="J45" s="89" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K45" s="9">
         <v>43592.0</v>
@@ -15511,7 +15517,7 @@
       </c>
       <c r="N45" s="8"/>
       <c r="O45" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
@@ -15531,16 +15537,16 @@
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>34</v>
@@ -15581,30 +15587,30 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="5" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I47" s="87"/>
       <c r="J47" s="89" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K47" s="9">
         <v>43592.0</v>
@@ -15615,7 +15621,7 @@
       </c>
       <c r="N47" s="8"/>
       <c r="O47" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P47" s="8"/>
       <c r="Q47" s="8"/>
@@ -15635,30 +15641,30 @@
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I48" s="87"/>
       <c r="J48" s="5" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K48" s="9">
         <v>43592.0</v>
@@ -15669,7 +15675,7 @@
       </c>
       <c r="N48" s="8"/>
       <c r="O48" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
@@ -15689,16 +15695,16 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>34</v>
@@ -15739,16 +15745,16 @@
     </row>
     <row r="50">
       <c r="A50" s="5" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B50" s="58" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>34</v>
@@ -15758,20 +15764,20 @@
       <c r="H50" s="8"/>
       <c r="I50" s="87"/>
       <c r="J50" s="89" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K50" s="9">
         <v>43592.0</v>
       </c>
       <c r="L50" s="9"/>
       <c r="M50" s="5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N50" s="9">
         <v>44848.0</v>
       </c>
       <c r="O50" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
@@ -15789,16 +15795,16 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C51" s="91" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>34</v>
@@ -15808,7 +15814,7 @@
       <c r="H51" s="8"/>
       <c r="I51" s="87"/>
       <c r="J51" s="89" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K51" s="9">
         <v>43592.0</v>
@@ -15819,7 +15825,7 @@
       </c>
       <c r="N51" s="8"/>
       <c r="O51" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
@@ -15839,16 +15845,16 @@
     </row>
     <row r="52">
       <c r="A52" s="5" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>34</v>
@@ -15889,21 +15895,21 @@
     </row>
     <row r="54">
       <c r="A54" s="65" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="5" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>34</v>
@@ -15913,7 +15919,7 @@
       <c r="H55" s="8"/>
       <c r="I55" s="87"/>
       <c r="J55" s="89" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K55" s="9">
         <v>43592.0</v>
@@ -15924,7 +15930,7 @@
       </c>
       <c r="N55" s="8"/>
       <c r="O55" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P55" s="8"/>
       <c r="Q55" s="8"/>
@@ -15944,16 +15950,16 @@
     </row>
     <row r="56">
       <c r="A56" s="5" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C56" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>478</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>476</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>34</v>
@@ -15963,7 +15969,7 @@
       <c r="H56" s="8"/>
       <c r="I56" s="87"/>
       <c r="J56" s="89" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K56" s="9">
         <v>43592.0</v>
@@ -15974,7 +15980,7 @@
       </c>
       <c r="N56" s="8"/>
       <c r="O56" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P56" s="8"/>
       <c r="Q56" s="8"/>
@@ -15994,16 +16000,16 @@
     </row>
     <row r="57">
       <c r="A57" s="5" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>34</v>
@@ -16013,7 +16019,7 @@
       <c r="H57" s="8"/>
       <c r="I57" s="87"/>
       <c r="J57" s="89" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K57" s="9">
         <v>43592.0</v>
@@ -16024,7 +16030,7 @@
       </c>
       <c r="N57" s="8"/>
       <c r="O57" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P57" s="8"/>
       <c r="Q57" s="8"/>
@@ -16044,16 +16050,16 @@
     </row>
     <row r="58">
       <c r="A58" s="5" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B58" s="76" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>34</v>
@@ -16063,7 +16069,7 @@
       <c r="H58" s="8"/>
       <c r="I58" s="87"/>
       <c r="J58" s="89" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K58" s="9">
         <v>43592.0</v>
@@ -16074,7 +16080,7 @@
       </c>
       <c r="N58" s="8"/>
       <c r="O58" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P58" s="8"/>
       <c r="Q58" s="8"/>
@@ -16094,16 +16100,16 @@
     </row>
     <row r="59">
       <c r="A59" s="5" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B59" s="76" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>34</v>
@@ -16113,7 +16119,7 @@
       <c r="H59" s="8"/>
       <c r="I59" s="87"/>
       <c r="J59" s="89" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K59" s="9">
         <v>43592.0</v>
@@ -16124,7 +16130,7 @@
       </c>
       <c r="N59" s="8"/>
       <c r="O59" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P59" s="8"/>
       <c r="Q59" s="8"/>
@@ -16144,21 +16150,21 @@
     </row>
     <row r="61">
       <c r="A61" s="65" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="5" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B62" s="76" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>34</v>
@@ -16168,7 +16174,7 @@
       <c r="H62" s="8"/>
       <c r="I62" s="87"/>
       <c r="J62" s="89" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K62" s="9">
         <v>43592.0</v>
@@ -16179,7 +16185,7 @@
       </c>
       <c r="N62" s="8"/>
       <c r="O62" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P62" s="8"/>
       <c r="Q62" s="8"/>
@@ -21098,13 +21104,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="78" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E1" s="78" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F1" s="78" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G1" s="78" t="s">
         <v>6</v>
@@ -21136,13 +21142,13 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>17</v>
@@ -21152,7 +21158,7 @@
         <v>dpv:Processing</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -21170,7 +21176,7 @@
         <v>22</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="O2" s="10" t="s">
         <v>24</v>
@@ -25170,13 +25176,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="78" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E1" s="78" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F1" s="78" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G1" s="78" t="s">
         <v>6</v>
@@ -25208,22 +25214,22 @@
     </row>
     <row r="2">
       <c r="A2" s="96" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B2" s="96" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C2" s="97" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D2" s="96" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="96" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
@@ -25237,7 +25243,7 @@
         <v>22</v>
       </c>
       <c r="N2" s="96" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="O2" s="100" t="s">
         <v>51</v>
@@ -25258,38 +25264,38 @@
     </row>
     <row r="3">
       <c r="A3" s="101" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B3" s="102" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C3" s="101" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D3" s="101" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="101" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G3" s="103"/>
       <c r="H3" s="103"/>
       <c r="I3" s="103"/>
       <c r="J3" s="104" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="K3" s="99">
         <v>44786.0</v>
       </c>
       <c r="L3" s="105"/>
       <c r="M3" s="96" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="N3" s="96" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="O3" s="106" t="s">
         <v>24</v>
@@ -25310,22 +25316,22 @@
     </row>
     <row r="4">
       <c r="A4" s="108" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B4" s="108" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C4" s="96" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D4" s="96" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="96" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G4" s="97"/>
       <c r="H4" s="97"/>
@@ -25338,10 +25344,10 @@
         <v>44727.0</v>
       </c>
       <c r="M4" s="96" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="N4" s="96" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="O4" s="100" t="s">
         <v>99</v>
@@ -25362,22 +25368,22 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -25410,27 +25416,27 @@
     </row>
     <row r="6">
       <c r="A6" s="108" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B6" s="108" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C6" s="96" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D6" s="96" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G6" s="97"/>
       <c r="H6" s="97"/>
       <c r="I6" s="5" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="99">
@@ -25441,7 +25447,7 @@
         <v>22</v>
       </c>
       <c r="N6" s="96" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="O6" s="100" t="s">
         <v>51</v>
@@ -29602,16 +29608,16 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>34</v>
@@ -29663,7 +29669,7 @@
     </row>
     <row r="4">
       <c r="A4" s="65" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B4" s="58"/>
       <c r="C4" s="7"/>
@@ -29678,16 +29684,16 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>34</v>
@@ -29696,7 +29702,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="90" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="9">
@@ -29732,16 +29738,16 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>34</v>
@@ -29780,16 +29786,16 @@
     </row>
     <row r="7">
       <c r="A7" s="109" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B7" s="110" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>34</v>
@@ -29798,10 +29804,10 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="5" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="J7" s="89" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K7" s="9">
         <v>44139.0</v>
@@ -29810,10 +29816,10 @@
         <v>44811.0</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N7" s="109" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="O7" s="10" t="s">
         <v>99</v>
@@ -29847,16 +29853,16 @@
     </row>
     <row r="9">
       <c r="A9" s="65" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>34</v>
@@ -29865,7 +29871,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="90" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="9">
@@ -29899,16 +29905,16 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>18</v>
@@ -29917,7 +29923,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="90" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="9">
@@ -29953,16 +29959,16 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>18</v>
@@ -29971,7 +29977,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="90" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="9">
@@ -30007,16 +30013,16 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>18</v>
@@ -30025,7 +30031,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="90" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="9">
@@ -30035,7 +30041,7 @@
         <v>44109.0</v>
       </c>
       <c r="M12" s="111" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N12" s="5" t="s">
         <v>81</v>
@@ -30059,16 +30065,16 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>18</v>
@@ -30077,7 +30083,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="90" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="9">
@@ -30111,16 +30117,16 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>18</v>
@@ -30161,16 +30167,16 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>18</v>
@@ -30179,7 +30185,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="90" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="9">
@@ -30226,16 +30232,16 @@
     </row>
     <row r="17">
       <c r="A17" s="65" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>34</v>
@@ -30244,7 +30250,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="90" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="9">
@@ -30280,16 +30286,16 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>18</v>
@@ -30328,16 +30334,16 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>18</v>
@@ -30376,16 +30382,16 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>18</v>
@@ -30438,7 +30444,7 @@
     </row>
     <row r="22">
       <c r="A22" s="65" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B22" s="58"/>
       <c r="C22" s="7"/>
@@ -30454,16 +30460,16 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>18</v>
@@ -30472,7 +30478,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="90" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="J23" s="88"/>
       <c r="K23" s="9">
@@ -30483,7 +30489,7 @@
         <v>22</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="O23" s="109"/>
       <c r="P23" s="8"/>
@@ -30504,16 +30510,16 @@
     </row>
     <row r="24">
       <c r="A24" s="109" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B24" s="110" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C24" s="112" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>34</v>
@@ -30522,7 +30528,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="113" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="J24" s="109"/>
       <c r="K24" s="9">
@@ -30556,16 +30562,16 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B25" s="58" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>18</v>
@@ -30583,7 +30589,7 @@
         <v>22</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="O25" s="109"/>
       <c r="P25" s="8"/>
@@ -30604,16 +30610,16 @@
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B26" s="58" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>18</v>
@@ -30622,7 +30628,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="90" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="J26" s="109"/>
       <c r="K26" s="9">
@@ -30633,7 +30639,7 @@
         <v>22</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="O26" s="109"/>
       <c r="P26" s="8"/>
@@ -30654,13 +30660,13 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B27" s="58" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -30694,13 +30700,13 @@
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B28" s="58" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -30734,13 +30740,13 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B29" s="58" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -30788,7 +30794,7 @@
     </row>
     <row r="31">
       <c r="A31" s="65" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B31" s="110"/>
       <c r="C31" s="7"/>
@@ -30804,16 +30810,16 @@
     </row>
     <row r="32">
       <c r="A32" s="109" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B32" s="110" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>34</v>
@@ -30823,7 +30829,7 @@
       <c r="H32" s="8"/>
       <c r="I32" s="87"/>
       <c r="J32" s="89" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K32" s="9">
         <v>44139.0</v>
@@ -30833,7 +30839,7 @@
         <v>22</v>
       </c>
       <c r="N32" s="109" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="O32" s="109" t="s">
         <v>51</v>
@@ -30856,16 +30862,16 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>34</v>
@@ -30875,7 +30881,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="87"/>
       <c r="J33" s="89" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K33" s="9">
         <v>44856.0</v>
@@ -30906,16 +30912,16 @@
     </row>
     <row r="34">
       <c r="A34" s="5" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>34</v>
@@ -30925,7 +30931,7 @@
       <c r="H34" s="8"/>
       <c r="I34" s="87"/>
       <c r="J34" s="89" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K34" s="9">
         <v>44856.0</v>
@@ -30956,16 +30962,16 @@
     </row>
     <row r="35">
       <c r="A35" s="109" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B35" s="110" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
@@ -30973,17 +30979,17 @@
       <c r="H35" s="8"/>
       <c r="I35" s="87"/>
       <c r="J35" s="89" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K35" s="9">
         <v>44139.0</v>
       </c>
       <c r="L35" s="9"/>
       <c r="M35" s="5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N35" s="109" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="O35" s="40" t="s">
         <v>82</v>
@@ -31004,16 +31010,16 @@
     </row>
     <row r="37">
       <c r="A37" s="109" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B37" s="110" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C37" s="112" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>34</v>
@@ -31023,7 +31029,7 @@
       <c r="H37" s="8"/>
       <c r="I37" s="87"/>
       <c r="J37" s="89" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K37" s="9">
         <v>44139.0</v>
@@ -31033,7 +31039,7 @@
         <v>22</v>
       </c>
       <c r="N37" s="109" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="O37" s="109" t="s">
         <v>51</v>
@@ -31056,16 +31062,16 @@
     </row>
     <row r="39">
       <c r="A39" s="65" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B39" s="58" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>34</v>
@@ -31083,7 +31089,7 @@
         <v>22</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="O39" s="115" t="s">
         <v>24</v>
@@ -31106,16 +31112,16 @@
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>34</v>
@@ -31133,7 +31139,7 @@
         <v>22</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="O40" s="115" t="s">
         <v>24</v>
@@ -31156,16 +31162,16 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>34</v>
@@ -31183,7 +31189,7 @@
         <v>22</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="O41" s="115" t="s">
         <v>24</v>
@@ -31206,16 +31212,16 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>34</v>
@@ -31233,7 +31239,7 @@
         <v>22</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="O42" s="115" t="s">
         <v>24</v>
@@ -31256,16 +31262,16 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>34</v>
@@ -31283,7 +31289,7 @@
         <v>22</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="O43" s="115" t="s">
         <v>24</v>
@@ -31306,16 +31312,16 @@
     </row>
     <row r="44">
       <c r="A44" s="109" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B44" s="110" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C44" s="112" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>34</v>
@@ -31325,7 +31331,7 @@
       <c r="H44" s="8"/>
       <c r="I44" s="87"/>
       <c r="J44" s="89" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K44" s="9">
         <v>44139.0</v>
@@ -31335,7 +31341,7 @@
         <v>22</v>
       </c>
       <c r="N44" s="109" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="O44" s="109" t="s">
         <v>51</v>
@@ -36161,16 +36167,16 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>34</v>
@@ -36179,7 +36185,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="90" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="9">
@@ -36190,7 +36196,7 @@
         <v>22</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="O2" s="10" t="s">
         <v>99</v>
@@ -36223,16 +36229,16 @@
     </row>
     <row r="4">
       <c r="A4" s="65" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>34</v>
@@ -36250,7 +36256,7 @@
         <v>22</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="O4" s="10" t="s">
         <v>99</v>
@@ -36271,16 +36277,16 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>18</v>
@@ -36319,16 +36325,16 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B6" s="58" t="s">
+        <v>654</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>652</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>653</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>650</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>18</v>
@@ -36367,16 +36373,16 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>18</v>
@@ -36394,7 +36400,7 @@
         <v>22</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="O7" s="10" t="s">
         <v>99</v>
@@ -36415,16 +36421,16 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>18</v>
@@ -36463,16 +36469,16 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C9" s="94" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>18</v>
@@ -36511,16 +36517,16 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>18</v>
@@ -36571,16 +36577,16 @@
     </row>
     <row r="12">
       <c r="A12" s="65" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>34</v>
@@ -36598,7 +36604,7 @@
         <v>22</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="O12" s="10" t="s">
         <v>99</v>
@@ -36619,16 +36625,16 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C13" s="95" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>18</v>
@@ -36667,16 +36673,16 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B14" s="58" t="s">
+        <v>677</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>675</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>676</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>673</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>18</v>
@@ -36715,16 +36721,16 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>18</v>
@@ -36742,7 +36748,7 @@
         <v>22</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="O15" s="10" t="s">
         <v>99</v>
@@ -36763,16 +36769,16 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>18</v>
@@ -36811,16 +36817,16 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>18</v>
@@ -36859,16 +36865,16 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B18" s="58" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>18</v>
@@ -36919,16 +36925,16 @@
     </row>
     <row r="20">
       <c r="A20" s="65" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>34</v>
@@ -36946,7 +36952,7 @@
         <v>22</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="O20" s="10" t="s">
         <v>99</v>
@@ -36967,16 +36973,16 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>18</v>
@@ -37015,16 +37021,16 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>697</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>698</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>695</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>18</v>
@@ -37063,16 +37069,16 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>18</v>
@@ -37111,16 +37117,16 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>18</v>
@@ -37159,16 +37165,16 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>18</v>
@@ -37207,16 +37213,16 @@
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>18</v>
@@ -37225,7 +37231,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="90" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="9">
@@ -37257,16 +37263,16 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>18</v>
@@ -37275,7 +37281,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="90" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="9">
@@ -37318,16 +37324,16 @@
     </row>
     <row r="29">
       <c r="A29" s="65" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B29" s="58" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>34</v>
@@ -37336,7 +37342,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="116" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="J29" s="8"/>
       <c r="K29" s="9">
@@ -37347,7 +37353,7 @@
         <v>22</v>
       </c>
       <c r="N29" s="117" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
@@ -37366,16 +37372,16 @@
     </row>
     <row r="30">
       <c r="A30" s="118" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B30" s="119" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C30" s="120" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="D30" s="121" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="E30" s="121" t="s">
         <v>18</v>
@@ -37384,10 +37390,10 @@
       <c r="G30" s="122"/>
       <c r="H30" s="122"/>
       <c r="I30" s="116" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="J30" s="123" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K30" s="124">
         <v>44139.0</v>
@@ -37396,10 +37402,10 @@
         <v>44811.0</v>
       </c>
       <c r="M30" s="121" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N30" s="117" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="O30" s="126" t="s">
         <v>51</v>
@@ -37422,16 +37428,16 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="B31" s="58" t="s">
+        <v>728</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="D31" s="109" t="s">
         <v>725</v>
-      </c>
-      <c r="B31" s="58" t="s">
-        <v>726</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="D31" s="109" t="s">
-        <v>723</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>18</v>
@@ -37468,16 +37474,16 @@
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B32" s="58" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D32" s="109" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>18</v>
@@ -42260,13 +42266,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="78" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E1" s="78" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F1" s="78" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G1" s="78" t="s">
         <v>6</v>
@@ -42298,22 +42304,22 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -42348,22 +42354,22 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -42380,7 +42386,7 @@
         <v>81</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
@@ -42398,22 +42404,22 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -42430,7 +42436,7 @@
         <v>81</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
@@ -42448,22 +42454,22 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -42480,7 +42486,7 @@
         <v>81</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
